--- a/input_data/transfers/transfers_info.xlsx
+++ b/input_data/transfers/transfers_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/transfers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/transfers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD9861-FEC4-314A-9062-B5BB9320FCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480BE56A-57FA-F644-A68D-34E608911FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,28 +58,28 @@
     <t>ПЛАН</t>
   </si>
   <si>
-    <t>07 февр.</t>
-  </si>
-  <si>
-    <t>08 февр.</t>
-  </si>
-  <si>
-    <t>09 февр.</t>
-  </si>
-  <si>
-    <t>10 февр.</t>
-  </si>
-  <si>
-    <t>11 февр.</t>
-  </si>
-  <si>
-    <t>12 февр.</t>
-  </si>
-  <si>
-    <t>13 февр.</t>
-  </si>
-  <si>
     <t>14 февр.</t>
+  </si>
+  <si>
+    <t>15 февр.</t>
+  </si>
+  <si>
+    <t>16 февр.</t>
+  </si>
+  <si>
+    <t>17 февр.</t>
+  </si>
+  <si>
+    <t>18 февр.</t>
+  </si>
+  <si>
+    <t>19 февр.</t>
+  </si>
+  <si>
+    <t>20 февр.</t>
+  </si>
+  <si>
+    <t>21 февр.</t>
   </si>
   <si>
     <t>ОСТ</t>
@@ -608,9 +608,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="00&quot; февр.&quot;"/>
-    <numFmt numFmtId="165" formatCode="0&quot; февр.&quot;"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0&quot; февр.&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -764,14 +763,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -779,8 +778,8 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1511,22 +1510,22 @@
         <v>34</v>
       </c>
       <c r="I5" s="5">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J5" s="5">
         <v>141</v>
       </c>
       <c r="K5" s="5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L5" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
       </c>
       <c r="N5" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O5" s="5">
         <v>141</v>
@@ -1547,20 +1546,20 @@
         <v>3</v>
       </c>
       <c r="U5" s="5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="6">
         <v>0</v>
       </c>
       <c r="Z5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
@@ -1608,13 +1607,13 @@
         <v>67</v>
       </c>
       <c r="L6" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M6" s="5">
         <v>1</v>
       </c>
       <c r="N6" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O6" s="5">
         <v>196</v>
@@ -1644,13 +1643,13 @@
         <v>67</v>
       </c>
       <c r="X6" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="6">
         <v>0</v>
       </c>
       <c r="Z6" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
@@ -1777,22 +1776,22 @@
         <v>34</v>
       </c>
       <c r="I8" s="5">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J8" s="5">
         <v>214</v>
       </c>
       <c r="K8" s="5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="5">
         <v>2</v>
       </c>
       <c r="N8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="5">
         <v>214</v>
@@ -1813,20 +1812,20 @@
         <v>0</v>
       </c>
       <c r="U8" s="5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="6">
         <v>0</v>
       </c>
       <c r="Z8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
@@ -1865,22 +1864,22 @@
         <v>34</v>
       </c>
       <c r="I9" s="5">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J9" s="5">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K9" s="5">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L9" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M9" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O9" s="5">
         <v>178</v>
@@ -1892,31 +1891,31 @@
         <v>8</v>
       </c>
       <c r="R9" s="5">
-        <v>12</v>
-      </c>
-      <c r="S9" s="5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
       </c>
       <c r="T9" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U9" s="5">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V9" s="5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W9" s="5">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="X9" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1</v>
       </c>
       <c r="Z9" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
@@ -1955,28 +1954,28 @@
         <v>34</v>
       </c>
       <c r="I10" s="5">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J10" s="5">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="K10" s="5">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L10" s="5">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M10" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N10" s="5">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="O10" s="5">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="P10" s="5">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="5">
         <v>0</v>
@@ -1991,38 +1990,28 @@
         <v>5</v>
       </c>
       <c r="U10" s="5">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="V10" s="5">
         <v>66</v>
       </c>
       <c r="W10" s="5">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="X10" s="5">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="Y10" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z10" s="5">
-        <v>61</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>8</v>
-      </c>
-      <c r="AB10" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC10" s="10">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="10">
-        <v>8</v>
-      </c>
-      <c r="AE10" s="10">
-        <v>9</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
@@ -2055,10 +2044,10 @@
         <v>34</v>
       </c>
       <c r="I11" s="5">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J11" s="5">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K11" s="5">
         <v>28</v>
@@ -2073,10 +2062,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="5">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P11" s="5">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
@@ -2136,7 +2125,7 @@
       <c r="F12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -2403,28 +2392,28 @@
         <v>34</v>
       </c>
       <c r="I15" s="5">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="J15" s="5">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="K15" s="5">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="L15" s="5">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M15" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O15" s="5">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="P15" s="5">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="Q15" s="5">
         <v>0</v>
@@ -2439,22 +2428,22 @@
         <v>0</v>
       </c>
       <c r="U15" s="5">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="V15" s="5">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W15" s="5">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="X15" s="5">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y15" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z15" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -2493,22 +2482,22 @@
         <v>34</v>
       </c>
       <c r="I16" s="5">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J16" s="5">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K16" s="5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L16" s="5">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="M16" s="5">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N16" s="5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O16" s="5">
         <v>68</v>
@@ -2520,42 +2509,52 @@
         <v>0</v>
       </c>
       <c r="R16" s="5">
+        <v>15</v>
+      </c>
+      <c r="S16" s="5">
+        <v>10</v>
+      </c>
+      <c r="T16" s="5">
+        <v>5</v>
+      </c>
+      <c r="U16" s="5">
+        <v>87</v>
+      </c>
+      <c r="V16" s="5">
+        <v>27</v>
+      </c>
+      <c r="W16" s="5">
+        <v>60</v>
+      </c>
+      <c r="X16" s="5">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="5">
         <v>21</v>
-      </c>
-      <c r="S16" s="5">
-        <v>13</v>
-      </c>
-      <c r="T16" s="5">
-        <v>8</v>
-      </c>
-      <c r="U16" s="5">
-        <v>93</v>
-      </c>
-      <c r="V16" s="5">
-        <v>31</v>
-      </c>
-      <c r="W16" s="5">
-        <v>62</v>
-      </c>
-      <c r="X16" s="5">
-        <v>51</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>32</v>
       </c>
       <c r="Z16" s="5">
         <v>19</v>
       </c>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
+      <c r="AA16" s="5">
+        <v>8</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>3</v>
+      </c>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
+      <c r="AH16" s="11">
+        <v>19</v>
+      </c>
+      <c r="AI16" s="11">
+        <v>20</v>
+      </c>
+      <c r="AJ16" s="11">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:36" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
@@ -2592,10 +2591,10 @@
         <v>40</v>
       </c>
       <c r="L17" s="5">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M17" s="5">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N17" s="5">
         <v>0</v>
@@ -2628,10 +2627,10 @@
         <v>40</v>
       </c>
       <c r="X17" s="5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y17" s="5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z17" s="5">
         <v>0</v>
@@ -2673,22 +2672,22 @@
         <v>34</v>
       </c>
       <c r="I18" s="5">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="J18" s="5">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="K18" s="5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L18" s="5">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M18" s="5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N18" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" s="5">
         <v>137</v>
@@ -2709,22 +2708,22 @@
         <v>0</v>
       </c>
       <c r="U18" s="5">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="V18" s="5">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="W18" s="5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X18" s="5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Y18" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z18" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
@@ -2763,22 +2762,22 @@
         <v>34</v>
       </c>
       <c r="I19" s="5">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J19" s="5">
         <v>376</v>
       </c>
       <c r="K19" s="5">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L19" s="5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M19" s="5">
+        <v>25</v>
+      </c>
+      <c r="N19" s="5">
         <v>35</v>
-      </c>
-      <c r="N19" s="5">
-        <v>27</v>
       </c>
       <c r="O19" s="5">
         <v>296</v>
@@ -2799,22 +2798,22 @@
         <v>0</v>
       </c>
       <c r="U19" s="5">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="V19" s="5">
         <v>80</v>
       </c>
       <c r="W19" s="5">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="X19" s="5">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y19" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z19" s="5">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
@@ -2941,13 +2940,13 @@
         <v>34</v>
       </c>
       <c r="I21" s="5">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="J21" s="5">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="K21" s="5">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="L21" s="5">
         <v>25</v>
@@ -2959,10 +2958,10 @@
         <v>15</v>
       </c>
       <c r="O21" s="5">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="P21" s="5">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="5">
         <v>0</v>
@@ -2977,11 +2976,11 @@
         <v>0</v>
       </c>
       <c r="U21" s="5">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="5">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="X21" s="5">
         <v>15</v>
@@ -3022,7 +3021,7 @@
       <c r="F22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -3117,22 +3116,22 @@
         <v>34</v>
       </c>
       <c r="I23" s="5">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J23" s="5">
         <v>163</v>
       </c>
       <c r="K23" s="5">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L23" s="5">
-        <v>22</v>
-      </c>
-      <c r="M23" s="5">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
       </c>
       <c r="N23" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O23" s="5">
         <v>68</v>
@@ -3153,22 +3152,22 @@
         <v>0</v>
       </c>
       <c r="U23" s="5">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V23" s="5">
         <v>95</v>
       </c>
       <c r="W23" s="5">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="X23" s="5">
-        <v>22</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0</v>
       </c>
       <c r="Z23" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -3207,22 +3206,22 @@
         <v>34</v>
       </c>
       <c r="I24" s="12">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="J24" s="12">
         <v>1118</v>
       </c>
       <c r="K24" s="5">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L24" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N24" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O24" s="5">
         <v>958</v>
@@ -3243,22 +3242,22 @@
         <v>0</v>
       </c>
       <c r="U24" s="5">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="V24" s="5">
         <v>160</v>
       </c>
       <c r="W24" s="5">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="X24" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y24" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Z24" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
@@ -3385,33 +3384,33 @@
         <v>34</v>
       </c>
       <c r="I26" s="5">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J26" s="5">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K26" s="5">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L26" s="5">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M26" s="5">
         <v>16</v>
       </c>
       <c r="N26" s="5">
-        <v>37</v>
-      </c>
-      <c r="O26" s="5">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="O26" s="13">
+        <v>35</v>
       </c>
       <c r="P26" s="5">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="5">
         <v>0</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="13">
         <v>36</v>
       </c>
       <c r="S26" s="5">
@@ -3421,26 +3420,32 @@
         <v>20</v>
       </c>
       <c r="U26" s="5">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="V26" s="5">
         <v>65</v>
       </c>
       <c r="W26" s="5">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X26" s="5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y26" s="6">
         <v>0</v>
       </c>
       <c r="Z26" s="5">
-        <v>17</v>
-      </c>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="11">
+        <v>14</v>
+      </c>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
@@ -3563,58 +3568,58 @@
         <v>34</v>
       </c>
       <c r="I28" s="12">
-        <v>1476</v>
+        <v>1340</v>
       </c>
       <c r="J28" s="12">
-        <v>1395</v>
+        <v>1195</v>
       </c>
       <c r="K28" s="5">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L28" s="5">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="M28" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N28" s="5">
-        <v>108</v>
-      </c>
-      <c r="O28" s="12">
-        <v>1038</v>
-      </c>
-      <c r="P28" s="12">
-        <v>1038</v>
+        <v>135</v>
+      </c>
+      <c r="O28" s="5">
+        <v>992</v>
+      </c>
+      <c r="P28" s="5">
+        <v>992</v>
       </c>
       <c r="Q28" s="5">
         <v>0</v>
       </c>
       <c r="R28" s="5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S28" s="6">
         <v>0</v>
       </c>
       <c r="T28" s="5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="U28" s="5">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="V28" s="5">
-        <v>357</v>
+        <v>203</v>
       </c>
       <c r="W28" s="5">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="X28" s="5">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="Y28" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z28" s="5">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
@@ -3653,58 +3658,58 @@
         <v>52</v>
       </c>
       <c r="I29" s="5">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J29" s="5">
-        <v>749</v>
+        <v>701</v>
       </c>
       <c r="K29" s="5">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="L29" s="5">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M29" s="5">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N29" s="5">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O29" s="5">
-        <v>569</v>
+        <v>473</v>
       </c>
       <c r="P29" s="5">
-        <v>569</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="5">
         <v>0</v>
       </c>
       <c r="R29" s="5">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="S29" s="5">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="T29" s="5">
         <v>11</v>
       </c>
       <c r="U29" s="5">
-        <v>283</v>
+        <v>378</v>
       </c>
       <c r="V29" s="5">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="W29" s="5">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="X29" s="5">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="Y29" s="5">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="Z29" s="5">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
@@ -3743,22 +3748,22 @@
         <v>34</v>
       </c>
       <c r="I30" s="5">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J30" s="5">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K30" s="5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L30" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M30" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O30" s="5">
         <v>454</v>
@@ -3779,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="U30" s="5">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V30" s="5">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W30" s="5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X30" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Y30" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z30" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
@@ -3833,58 +3838,58 @@
         <v>34</v>
       </c>
       <c r="I31" s="5">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J31" s="5">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="K31" s="5">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="L31" s="5">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M31" s="5">
         <v>10</v>
       </c>
       <c r="N31" s="5">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="O31" s="5">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="P31" s="5">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="Q31" s="5">
         <v>0</v>
       </c>
       <c r="R31" s="5">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="S31" s="5">
         <v>6</v>
       </c>
       <c r="T31" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U31" s="5">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="V31" s="5">
         <v>95</v>
       </c>
       <c r="W31" s="5">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="X31" s="5">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Y31" s="5">
         <v>4</v>
       </c>
       <c r="Z31" s="5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
@@ -3923,58 +3928,58 @@
         <v>34</v>
       </c>
       <c r="I32" s="5">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="J32" s="5">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="K32" s="5">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="L32" s="5">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="M32" s="5">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N32" s="5">
-        <v>53</v>
-      </c>
-      <c r="O32" s="5">
-        <v>144</v>
+        <v>92</v>
+      </c>
+      <c r="O32" s="13">
+        <v>94</v>
       </c>
       <c r="P32" s="5">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="Q32" s="5">
         <v>0</v>
       </c>
-      <c r="R32" s="5">
-        <v>45</v>
-      </c>
-      <c r="S32" s="6">
-        <v>0</v>
+      <c r="R32" s="13">
+        <v>95</v>
+      </c>
+      <c r="S32" s="5">
+        <v>20</v>
       </c>
       <c r="T32" s="5">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="U32" s="5">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="V32" s="5">
         <v>44</v>
       </c>
       <c r="W32" s="5">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="X32" s="5">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Y32" s="5">
         <v>6</v>
       </c>
       <c r="Z32" s="5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
@@ -4013,58 +4018,58 @@
         <v>34</v>
       </c>
       <c r="I33" s="5">
-        <v>566</v>
+        <v>620</v>
       </c>
       <c r="J33" s="5">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="K33" s="5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M33" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N33" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O33" s="5">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="P33" s="5">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="Q33" s="5">
         <v>0</v>
       </c>
       <c r="R33" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S33" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T33" s="5">
         <v>0</v>
       </c>
       <c r="U33" s="5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V33" s="5">
         <v>19</v>
       </c>
       <c r="W33" s="5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X33" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y33" s="5">
         <v>1</v>
       </c>
       <c r="Z33" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
@@ -4103,56 +4108,56 @@
         <v>34</v>
       </c>
       <c r="I34" s="5">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="J34" s="5">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="K34" s="5">
+        <v>74</v>
+      </c>
+      <c r="L34" s="5">
         <v>55</v>
       </c>
-      <c r="L34" s="5">
-        <v>36</v>
-      </c>
       <c r="M34" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N34" s="5">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="O34" s="5">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="P34" s="5">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="Q34" s="5">
         <v>0</v>
       </c>
       <c r="R34" s="5">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="S34" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T34" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U34" s="5">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="V34" s="7"/>
       <c r="W34" s="5">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="X34" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y34" s="6">
         <v>0</v>
       </c>
       <c r="Z34" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
@@ -4191,64 +4196,74 @@
         <v>34</v>
       </c>
       <c r="I35" s="5">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="J35" s="5">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="K35" s="5">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="L35" s="5">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="M35" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N35" s="5">
-        <v>36</v>
-      </c>
-      <c r="O35" s="5">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="O35" s="13">
+        <v>18</v>
       </c>
       <c r="P35" s="5">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="Q35" s="5">
         <v>0</v>
       </c>
-      <c r="R35" s="5">
-        <v>18</v>
+      <c r="R35" s="13">
+        <v>44</v>
       </c>
       <c r="S35" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T35" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="U35" s="5">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="V35" s="5">
         <v>38</v>
       </c>
       <c r="W35" s="5">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="X35" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y35" s="5">
         <v>2</v>
       </c>
       <c r="Z35" s="5">
-        <v>26</v>
-      </c>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>14</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>15</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>16</v>
+      </c>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
@@ -4281,56 +4296,56 @@
         <v>34</v>
       </c>
       <c r="I36" s="5">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="J36" s="5">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="K36" s="5">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="L36" s="5">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M36" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N36" s="5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O36" s="5">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="P36" s="5">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="5">
         <v>0</v>
       </c>
       <c r="R36" s="5">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="S36" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="T36" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U36" s="5">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="V36" s="7"/>
       <c r="W36" s="5">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X36" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y36" s="6">
         <v>0</v>
       </c>
       <c r="Z36" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
@@ -4369,22 +4384,22 @@
         <v>34</v>
       </c>
       <c r="I37" s="5">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="J37" s="5">
         <v>276</v>
       </c>
       <c r="K37" s="5">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="L37" s="5">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="M37" s="5">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="N37" s="5">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O37" s="5">
         <v>140</v>
@@ -4405,22 +4420,22 @@
         <v>0</v>
       </c>
       <c r="U37" s="5">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="V37" s="5">
         <v>136</v>
       </c>
       <c r="W37" s="5">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="X37" s="5">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="Y37" s="5">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="Z37" s="5">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
@@ -4458,59 +4473,59 @@
       <c r="H38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="12">
-        <v>1001</v>
+      <c r="I38" s="5">
+        <v>986</v>
       </c>
       <c r="J38" s="5">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="K38" s="5">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L38" s="5">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="M38" s="5">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="N38" s="5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="O38" s="5">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="P38" s="5">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="Q38" s="5">
         <v>0</v>
       </c>
       <c r="R38" s="5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S38" s="5">
         <v>20</v>
       </c>
       <c r="T38" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U38" s="5">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="V38" s="5">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W38" s="5">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="X38" s="5">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="Y38" s="5">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="Z38" s="5">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
@@ -4536,7 +4551,7 @@
       <c r="D39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="14" t="s">
         <v>87</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -4548,65 +4563,75 @@
       <c r="H39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="5">
-        <v>148</v>
+      <c r="I39" s="13">
+        <v>88</v>
       </c>
       <c r="J39" s="5">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="K39" s="5">
-        <v>48</v>
-      </c>
-      <c r="L39" s="5">
-        <v>99</v>
+        <v>37</v>
+      </c>
+      <c r="L39" s="13">
+        <v>124</v>
       </c>
       <c r="M39" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N39" s="5">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="O39" s="5">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="P39" s="5">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="5">
         <v>0</v>
       </c>
       <c r="R39" s="5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S39" s="5">
         <v>5</v>
       </c>
       <c r="T39" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U39" s="13">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="V39" s="5">
         <v>13</v>
       </c>
       <c r="W39" s="5">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="X39" s="13">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="Y39" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z39" s="5">
-        <v>70</v>
-      </c>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>8</v>
+      </c>
+      <c r="AB39" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>14</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>15</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>16</v>
+      </c>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
@@ -4639,58 +4664,58 @@
         <v>34</v>
       </c>
       <c r="I40" s="5">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="J40" s="5">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="K40" s="5">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L40" s="5">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M40" s="5">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N40" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O40" s="5">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="P40" s="5">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="Q40" s="5">
         <v>0</v>
       </c>
       <c r="R40" s="5">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="S40" s="5">
+        <v>21</v>
+      </c>
+      <c r="T40" s="5">
         <v>6</v>
       </c>
-      <c r="T40" s="5">
-        <v>2</v>
-      </c>
       <c r="U40" s="5">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="V40" s="5">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W40" s="5">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="X40" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y40" s="5">
         <v>3</v>
       </c>
       <c r="Z40" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
@@ -4729,28 +4754,28 @@
         <v>34</v>
       </c>
       <c r="I41" s="5">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J41" s="5">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="K41" s="5">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L41" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M41" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N41" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O41" s="5">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="P41" s="5">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="Q41" s="5">
         <v>0</v>
@@ -4765,22 +4790,22 @@
         <v>0</v>
       </c>
       <c r="U41" s="5">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="V41" s="5">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W41" s="5">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="X41" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y41" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z41" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
@@ -4819,58 +4844,58 @@
         <v>34</v>
       </c>
       <c r="I42" s="5">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="J42" s="5">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="K42" s="5">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="L42" s="5">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="M42" s="5">
         <v>28</v>
       </c>
       <c r="N42" s="5">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="O42" s="5">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="P42" s="5">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="Q42" s="5">
         <v>0</v>
       </c>
       <c r="R42" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S42" s="6">
         <v>0</v>
       </c>
       <c r="T42" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U42" s="5">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="V42" s="5">
         <v>72</v>
       </c>
       <c r="W42" s="5">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="X42" s="5">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="Y42" s="5">
         <v>28</v>
       </c>
       <c r="Z42" s="5">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
@@ -4909,28 +4934,28 @@
         <v>34</v>
       </c>
       <c r="I43" s="5">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="J43" s="5">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="K43" s="5">
         <v>58</v>
       </c>
       <c r="L43" s="5">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="M43" s="5">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N43" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O43" s="5">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="P43" s="5">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="Q43" s="5">
         <v>0</v>
@@ -4945,22 +4970,22 @@
         <v>0</v>
       </c>
       <c r="U43" s="5">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="V43" s="5">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="W43" s="5">
         <v>58</v>
       </c>
       <c r="X43" s="5">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="Y43" s="5">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Z43" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
@@ -4992,7 +5017,7 @@
       <c r="F44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -5080,29 +5105,29 @@
       <c r="F45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I45" s="5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J45" s="5">
         <v>37</v>
       </c>
       <c r="K45" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L45" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M45" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N45" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O45" s="5">
         <v>6</v>
@@ -5123,22 +5148,22 @@
         <v>0</v>
       </c>
       <c r="U45" s="5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V45" s="5">
         <v>31</v>
       </c>
       <c r="W45" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X45" s="5">
-        <v>17</v>
-      </c>
-      <c r="Y45" s="5">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>0</v>
       </c>
       <c r="Z45" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
@@ -5176,84 +5201,78 @@
       <c r="H46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="12">
-        <v>1133</v>
+      <c r="I46" s="5">
+        <v>624</v>
       </c>
       <c r="J46" s="5">
-        <v>805</v>
+        <v>316</v>
       </c>
       <c r="K46" s="5">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="L46" s="5">
-        <v>427</v>
+        <v>526</v>
       </c>
       <c r="M46" s="5">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="N46" s="5">
-        <v>253</v>
-      </c>
-      <c r="O46" s="5">
-        <v>208</v>
+        <v>321</v>
+      </c>
+      <c r="O46" s="13">
+        <v>14</v>
       </c>
       <c r="P46" s="5">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="Q46" s="5">
         <v>0</v>
       </c>
-      <c r="R46" s="5">
-        <v>96</v>
+      <c r="R46" s="13">
+        <v>172</v>
       </c>
       <c r="S46" s="5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T46" s="5">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="U46" s="5">
-        <v>925</v>
+        <v>610</v>
       </c>
       <c r="V46" s="5">
-        <v>597</v>
+        <v>302</v>
       </c>
       <c r="W46" s="5">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="X46" s="5">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="Y46" s="5">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Z46" s="5">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="AA46" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB46" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="11">
         <v>14</v>
       </c>
-      <c r="AB46" s="9">
-        <v>5</v>
-      </c>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
+      <c r="AD46" s="11">
+        <v>15</v>
+      </c>
       <c r="AE46" s="4"/>
-      <c r="AF46" s="14">
-        <v>10</v>
-      </c>
-      <c r="AG46" s="14">
-        <v>11</v>
-      </c>
-      <c r="AH46" s="14">
-        <v>12</v>
-      </c>
-      <c r="AI46" s="14">
-        <v>13</v>
-      </c>
-      <c r="AJ46" s="14">
-        <v>14</v>
-      </c>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
     </row>
     <row r="47" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
@@ -5281,58 +5300,58 @@
         <v>52</v>
       </c>
       <c r="I47" s="5">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J47" s="5">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K47" s="5">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L47" s="5">
-        <v>42</v>
-      </c>
-      <c r="M47" s="6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="M47" s="5">
+        <v>6</v>
       </c>
       <c r="N47" s="5">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O47" s="5">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P47" s="5">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q47" s="5">
         <v>0</v>
       </c>
       <c r="R47" s="5">
-        <v>20</v>
-      </c>
-      <c r="S47" s="6">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="S47" s="5">
+        <v>6</v>
       </c>
       <c r="T47" s="5">
         <v>20</v>
       </c>
       <c r="U47" s="5">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="V47" s="5">
         <v>100</v>
       </c>
       <c r="W47" s="5">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="X47" s="5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y47" s="6">
         <v>0</v>
       </c>
       <c r="Z47" s="5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
@@ -5374,25 +5393,25 @@
         <v>675</v>
       </c>
       <c r="J48" s="5">
-        <v>604</v>
+        <v>564</v>
       </c>
       <c r="K48" s="5">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="L48" s="5">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M48" s="5">
         <v>3</v>
       </c>
       <c r="N48" s="5">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="O48" s="5">
-        <v>492</v>
+        <v>402</v>
       </c>
       <c r="P48" s="5">
-        <v>492</v>
+        <v>402</v>
       </c>
       <c r="Q48" s="5">
         <v>0</v>
@@ -5407,22 +5426,22 @@
         <v>0</v>
       </c>
       <c r="U48" s="5">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="V48" s="5">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="W48" s="5">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="X48" s="5">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Y48" s="5">
         <v>2</v>
       </c>
       <c r="Z48" s="5">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
@@ -5637,22 +5656,22 @@
         <v>34</v>
       </c>
       <c r="I51" s="5">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="J51" s="5">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="K51" s="5">
         <v>76</v>
       </c>
       <c r="L51" s="5">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="M51" s="5">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N51" s="5">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="O51" s="5">
         <v>201</v>
@@ -5664,31 +5683,29 @@
         <v>0</v>
       </c>
       <c r="R51" s="5">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="S51" s="5">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="T51" s="5">
         <v>0</v>
       </c>
       <c r="U51" s="5">
-        <v>126</v>
-      </c>
-      <c r="V51" s="5">
-        <v>50</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="V51" s="7"/>
       <c r="W51" s="5">
         <v>76</v>
       </c>
       <c r="X51" s="5">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Y51" s="6">
         <v>0</v>
       </c>
       <c r="Z51" s="5">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
@@ -5727,56 +5744,56 @@
         <v>109</v>
       </c>
       <c r="I52" s="5">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J52" s="5">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K52" s="5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L52" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M52" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N52" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O52" s="5">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P52" s="5">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q52" s="5">
         <v>0</v>
       </c>
       <c r="R52" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S52" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="T52" s="5">
         <v>0</v>
       </c>
       <c r="U52" s="5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V52" s="7"/>
       <c r="W52" s="5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X52" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y52" s="6">
         <v>0</v>
       </c>
       <c r="Z52" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
@@ -5815,22 +5832,22 @@
         <v>34</v>
       </c>
       <c r="I53" s="12">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="J53" s="12">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="K53" s="5">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L53" s="5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M53" s="5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N53" s="5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O53" s="5">
         <v>866</v>
@@ -5851,22 +5868,22 @@
         <v>1</v>
       </c>
       <c r="U53" s="5">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="V53" s="5">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="W53" s="5">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X53" s="5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Y53" s="5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Z53" s="5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
@@ -5905,28 +5922,28 @@
         <v>34</v>
       </c>
       <c r="I54" s="5">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="J54" s="5">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K54" s="5">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L54" s="5">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M54" s="5">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N54" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="O54" s="5">
-        <v>711</v>
+        <v>661</v>
       </c>
       <c r="P54" s="5">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="Q54" s="5">
         <v>5</v>
@@ -5941,22 +5958,22 @@
         <v>0</v>
       </c>
       <c r="U54" s="5">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="V54" s="5">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="W54" s="5">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="X54" s="5">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Y54" s="5">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Z54" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA54" s="8"/>
       <c r="AB54" s="8"/>
@@ -6101,10 +6118,10 @@
         <v>10</v>
       </c>
       <c r="O56" s="5">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="P56" s="5">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="Q56" s="5">
         <v>0</v>
@@ -6119,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="U56" s="5">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="V56" s="5">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="W56" s="5">
         <v>28</v>
@@ -6182,13 +6199,13 @@
         <v>80</v>
       </c>
       <c r="L57" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M57" s="5">
         <v>10</v>
       </c>
       <c r="N57" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O57" s="5">
         <v>503</v>
@@ -6200,13 +6217,13 @@
         <v>0</v>
       </c>
       <c r="R57" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S57" s="5">
         <v>10</v>
       </c>
       <c r="T57" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U57" s="5">
         <v>80</v>
@@ -6261,22 +6278,22 @@
         <v>52</v>
       </c>
       <c r="I58" s="5">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="J58" s="5">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K58" s="5">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L58" s="5">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="M58" s="5">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="N58" s="5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O58" s="5">
         <v>330</v>
@@ -6288,31 +6305,31 @@
         <v>0</v>
       </c>
       <c r="R58" s="5">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="S58" s="5">
         <v>22</v>
       </c>
       <c r="T58" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U58" s="5">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="V58" s="5">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W58" s="5">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X58" s="5">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Y58" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z58" s="5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
@@ -6360,13 +6377,13 @@
         <v>79</v>
       </c>
       <c r="L59" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M59" s="5">
         <v>7</v>
       </c>
       <c r="N59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="5">
         <v>325</v>
@@ -6396,13 +6413,13 @@
         <v>79</v>
       </c>
       <c r="X59" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y59" s="5">
         <v>6</v>
       </c>
       <c r="Z59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
@@ -6428,7 +6445,7 @@
       <c r="D60" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="14" t="s">
         <v>123</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -6440,59 +6457,59 @@
       <c r="H60" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I60" s="5">
-        <v>73</v>
+      <c r="I60" s="13">
+        <v>54</v>
       </c>
       <c r="J60" s="5">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K60" s="5">
-        <v>33</v>
-      </c>
-      <c r="L60" s="5">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="L60" s="13">
+        <v>54</v>
       </c>
       <c r="M60" s="5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N60" s="5">
-        <v>34</v>
-      </c>
-      <c r="O60" s="5">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="O60" s="13">
+        <v>20</v>
       </c>
       <c r="P60" s="5">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="Q60" s="5">
         <v>0</v>
       </c>
-      <c r="R60" s="5">
-        <v>15</v>
+      <c r="R60" s="13">
+        <v>22</v>
       </c>
       <c r="S60" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T60" s="5">
         <v>10</v>
       </c>
       <c r="U60" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V60" s="5">
         <v>3</v>
       </c>
       <c r="W60" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X60" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y60" s="5">
         <v>6</v>
       </c>
       <c r="Z60" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
@@ -6619,22 +6636,22 @@
         <v>34</v>
       </c>
       <c r="I62" s="5">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J62" s="5">
         <v>319</v>
       </c>
       <c r="K62" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L62" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M62" s="6">
         <v>0</v>
       </c>
       <c r="N62" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O62" s="5">
         <v>319</v>
@@ -6655,20 +6672,20 @@
         <v>0</v>
       </c>
       <c r="U62" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V62" s="7"/>
       <c r="W62" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X62" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y62" s="6">
         <v>0</v>
       </c>
       <c r="Z62" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA62" s="8"/>
       <c r="AB62" s="8"/>
@@ -6707,58 +6724,58 @@
         <v>34</v>
       </c>
       <c r="I63" s="12">
-        <v>1563</v>
+        <v>1525</v>
       </c>
       <c r="J63" s="12">
-        <v>1514</v>
+        <v>1480</v>
       </c>
       <c r="K63" s="5">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L63" s="5">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="M63" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N63" s="5">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="O63" s="12">
-        <v>1435</v>
+        <v>1401</v>
       </c>
       <c r="P63" s="12">
-        <v>1435</v>
+        <v>1401</v>
       </c>
       <c r="Q63" s="5">
         <v>0</v>
       </c>
       <c r="R63" s="5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="S63" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T63" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U63" s="5">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="V63" s="5">
         <v>79</v>
       </c>
       <c r="W63" s="5">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="X63" s="5">
         <v>61</v>
       </c>
       <c r="Y63" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z63" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
@@ -6806,13 +6823,13 @@
         <v>64</v>
       </c>
       <c r="L64" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M64" s="6">
         <v>0</v>
       </c>
       <c r="N64" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O64" s="5">
         <v>77</v>
@@ -6842,13 +6859,13 @@
         <v>64</v>
       </c>
       <c r="X64" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y64" s="6">
         <v>0</v>
       </c>
       <c r="Z64" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA64" s="8"/>
       <c r="AB64" s="8"/>
@@ -6887,37 +6904,37 @@
         <v>34</v>
       </c>
       <c r="I65" s="5">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J65" s="5">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K65" s="5">
         <v>71</v>
       </c>
       <c r="L65" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M65" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N65" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O65" s="5">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P65" s="5">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q65" s="5">
         <v>0</v>
       </c>
       <c r="R65" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S65" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T65" s="5">
         <v>5</v>
@@ -6930,13 +6947,13 @@
         <v>71</v>
       </c>
       <c r="X65" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="6">
         <v>0</v>
       </c>
       <c r="Z65" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
@@ -6984,13 +7001,13 @@
         <v>64</v>
       </c>
       <c r="L66" s="5">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M66" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66" s="5">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O66" s="5">
         <v>61</v>
@@ -7002,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="R66" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S66" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T66" s="5">
         <v>10</v>
@@ -7018,13 +7035,13 @@
         <v>64</v>
       </c>
       <c r="X66" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Y66" s="6">
         <v>0</v>
       </c>
       <c r="Z66" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AA66" s="8"/>
       <c r="AB66" s="8"/>
@@ -7151,37 +7168,37 @@
         <v>34</v>
       </c>
       <c r="I68" s="5">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="J68" s="5">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="K68" s="5">
         <v>77</v>
       </c>
       <c r="L68" s="5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M68" s="5">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="5">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="P68" s="5">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="Q68" s="5">
         <v>0</v>
       </c>
       <c r="R68" s="5">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="S68" s="5">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="T68" s="5">
         <v>0</v>
@@ -7194,13 +7211,13 @@
         <v>77</v>
       </c>
       <c r="X68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="6">
         <v>0</v>
       </c>
       <c r="Z68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
@@ -7417,13 +7434,13 @@
         <v>34</v>
       </c>
       <c r="I71" s="5">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J71" s="5">
         <v>449</v>
       </c>
       <c r="K71" s="5">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L71" s="5">
         <v>28</v>
@@ -7453,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="U71" s="5">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="V71" s="5">
         <v>82</v>
       </c>
       <c r="W71" s="5">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="X71" s="5">
         <v>28</v>
@@ -7507,56 +7524,56 @@
         <v>34</v>
       </c>
       <c r="I72" s="5">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="J72" s="5">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="K72" s="5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L72" s="5">
-        <v>0</v>
-      </c>
-      <c r="M72" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M72" s="5">
+        <v>1</v>
       </c>
       <c r="N72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" s="5">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="P72" s="5">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="Q72" s="5">
         <v>0</v>
       </c>
       <c r="R72" s="5">
-        <v>0</v>
-      </c>
-      <c r="S72" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S72" s="5">
+        <v>1</v>
       </c>
       <c r="T72" s="5">
         <v>0</v>
       </c>
       <c r="U72" s="5">
-        <v>0</v>
-      </c>
-      <c r="V72" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="V72" s="7"/>
       <c r="W72" s="5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="6">
         <v>0</v>
       </c>
       <c r="Z72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA72" s="8"/>
       <c r="AB72" s="8"/>
@@ -7595,22 +7612,22 @@
         <v>34</v>
       </c>
       <c r="I73" s="5">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="J73" s="5">
         <v>197</v>
       </c>
       <c r="K73" s="5">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="L73" s="5">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M73" s="5">
         <v>1</v>
       </c>
       <c r="N73" s="5">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O73" s="5">
         <v>97</v>
@@ -7631,22 +7648,22 @@
         <v>23</v>
       </c>
       <c r="U73" s="5">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="V73" s="5">
         <v>100</v>
       </c>
       <c r="W73" s="5">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="X73" s="5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y73" s="6">
         <v>0</v>
       </c>
       <c r="Z73" s="5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AA73" s="8"/>
       <c r="AB73" s="8"/>
@@ -7685,37 +7702,37 @@
         <v>34</v>
       </c>
       <c r="I74" s="5">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="J74" s="5">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="K74" s="5">
         <v>39</v>
       </c>
       <c r="L74" s="5">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M74" s="5">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N74" s="5">
         <v>1</v>
       </c>
       <c r="O74" s="5">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="P74" s="5">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="Q74" s="5">
         <v>0</v>
       </c>
       <c r="R74" s="5">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="S74" s="5">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="T74" s="5">
         <v>0</v>
@@ -7775,13 +7792,13 @@
         <v>34</v>
       </c>
       <c r="I75" s="5">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J75" s="5">
         <v>129</v>
       </c>
       <c r="K75" s="5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L75" s="5">
         <v>39</v>
@@ -7811,13 +7828,13 @@
         <v>0</v>
       </c>
       <c r="U75" s="5">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="V75" s="5">
         <v>66</v>
       </c>
       <c r="W75" s="5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="X75" s="5">
         <v>39</v>
@@ -7865,13 +7882,13 @@
         <v>34</v>
       </c>
       <c r="I76" s="5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J76" s="5">
         <v>45</v>
       </c>
       <c r="K76" s="5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L76" s="5">
         <v>14</v>
@@ -7901,13 +7918,13 @@
         <v>0</v>
       </c>
       <c r="U76" s="5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V76" s="5">
         <v>10</v>
       </c>
       <c r="W76" s="5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X76" s="5">
         <v>14</v>
@@ -8052,13 +8069,13 @@
         <v>38</v>
       </c>
       <c r="L78" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78" s="6">
         <v>0</v>
       </c>
       <c r="N78" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O78" s="5">
         <v>882</v>
@@ -8086,13 +8103,13 @@
         <v>38</v>
       </c>
       <c r="X78" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y78" s="6">
         <v>0</v>
       </c>
       <c r="Z78" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA78" s="8"/>
       <c r="AB78" s="8"/>
@@ -8219,65 +8236,75 @@
         <v>52</v>
       </c>
       <c r="I80" s="5">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="J80" s="5">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K80" s="5">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L80" s="5">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M80" s="5">
+        <v>11</v>
+      </c>
+      <c r="N80" s="5">
+        <v>32</v>
+      </c>
+      <c r="O80" s="5">
+        <v>42</v>
+      </c>
+      <c r="P80" s="5">
+        <v>42</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>0</v>
+      </c>
+      <c r="R80" s="5">
+        <v>0</v>
+      </c>
+      <c r="S80" s="6">
+        <v>0</v>
+      </c>
+      <c r="T80" s="5">
+        <v>0</v>
+      </c>
+      <c r="U80" s="5">
+        <v>138</v>
+      </c>
+      <c r="V80" s="5">
+        <v>82</v>
+      </c>
+      <c r="W80" s="5">
+        <v>56</v>
+      </c>
+      <c r="X80" s="5">
+        <v>43</v>
+      </c>
+      <c r="Y80" s="5">
+        <v>11</v>
+      </c>
+      <c r="Z80" s="5">
+        <v>32</v>
+      </c>
+      <c r="AA80" s="5">
         <v>8</v>
       </c>
-      <c r="N80" s="5">
-        <v>28</v>
-      </c>
-      <c r="O80" s="5">
-        <v>44</v>
-      </c>
-      <c r="P80" s="5">
-        <v>44</v>
-      </c>
-      <c r="Q80" s="5">
-        <v>0</v>
-      </c>
-      <c r="R80" s="5">
-        <v>1</v>
-      </c>
-      <c r="S80" s="5">
-        <v>1</v>
-      </c>
-      <c r="T80" s="5">
-        <v>0</v>
-      </c>
-      <c r="U80" s="5">
-        <v>148</v>
-      </c>
-      <c r="V80" s="5">
-        <v>86</v>
-      </c>
-      <c r="W80" s="5">
-        <v>62</v>
-      </c>
-      <c r="X80" s="5">
-        <v>35</v>
-      </c>
-      <c r="Y80" s="5">
-        <v>7</v>
-      </c>
-      <c r="Z80" s="5">
-        <v>28</v>
-      </c>
-      <c r="AA80" s="8"/>
-      <c r="AB80" s="8"/>
+      <c r="AB80" s="10">
+        <v>3</v>
+      </c>
       <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
+      <c r="AD80" s="11">
+        <v>15</v>
+      </c>
+      <c r="AE80" s="11">
+        <v>16</v>
+      </c>
+      <c r="AF80" s="11">
+        <v>17</v>
+      </c>
       <c r="AG80" s="4"/>
       <c r="AH80" s="4"/>
       <c r="AI80" s="4"/>
@@ -8309,22 +8336,22 @@
         <v>34</v>
       </c>
       <c r="I81" s="5">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J81" s="5">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K81" s="5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L81" s="5">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M81" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N81" s="5">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="O81" s="5">
         <v>571</v>
@@ -8336,31 +8363,31 @@
         <v>0</v>
       </c>
       <c r="R81" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S81" s="5">
         <v>5</v>
       </c>
       <c r="T81" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U81" s="5">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="V81" s="5">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="W81" s="5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X81" s="5">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Y81" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z81" s="5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AA81" s="8"/>
       <c r="AB81" s="8"/>
@@ -8661,22 +8688,22 @@
         <v>34</v>
       </c>
       <c r="I85" s="5">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J85" s="5">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K85" s="5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L85" s="5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M85" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N85" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O85" s="5">
         <v>273</v>
@@ -8688,31 +8715,31 @@
         <v>0</v>
       </c>
       <c r="R85" s="5">
+        <v>21</v>
+      </c>
+      <c r="S85" s="5">
+        <v>1</v>
+      </c>
+      <c r="T85" s="5">
         <v>20</v>
       </c>
-      <c r="S85" s="5">
-        <v>2</v>
-      </c>
-      <c r="T85" s="5">
-        <v>18</v>
-      </c>
       <c r="U85" s="5">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="V85" s="5">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W85" s="5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X85" s="5">
-        <v>12</v>
-      </c>
-      <c r="Y85" s="6">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>4</v>
       </c>
       <c r="Z85" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AA85" s="8"/>
       <c r="AB85" s="8"/>
@@ -8751,40 +8778,40 @@
         <v>34</v>
       </c>
       <c r="I86" s="5">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="J86" s="5">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="K86" s="5">
         <v>72</v>
       </c>
       <c r="L86" s="5">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M86" s="5">
         <v>4</v>
       </c>
       <c r="N86" s="5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O86" s="5">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P86" s="5">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="Q86" s="5">
         <v>0</v>
       </c>
       <c r="R86" s="5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S86" s="5">
         <v>4</v>
       </c>
       <c r="T86" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U86" s="5">
         <v>72</v>
@@ -8794,13 +8821,13 @@
         <v>72</v>
       </c>
       <c r="X86" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y86" s="6">
         <v>0</v>
       </c>
       <c r="Z86" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA86" s="8"/>
       <c r="AB86" s="8"/>
@@ -8839,58 +8866,58 @@
         <v>34</v>
       </c>
       <c r="I87" s="12">
-        <v>1338</v>
+        <v>1274</v>
       </c>
       <c r="J87" s="12">
-        <v>1205</v>
+        <v>1168</v>
       </c>
       <c r="K87" s="5">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="L87" s="5">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="M87" s="5">
+        <v>61</v>
+      </c>
+      <c r="N87" s="5">
+        <v>105</v>
+      </c>
+      <c r="O87" s="5">
+        <v>986</v>
+      </c>
+      <c r="P87" s="5">
+        <v>986</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>0</v>
+      </c>
+      <c r="R87" s="5">
+        <v>44</v>
+      </c>
+      <c r="S87" s="5">
+        <v>2</v>
+      </c>
+      <c r="T87" s="5">
+        <v>42</v>
+      </c>
+      <c r="U87" s="5">
+        <v>288</v>
+      </c>
+      <c r="V87" s="5">
+        <v>182</v>
+      </c>
+      <c r="W87" s="5">
+        <v>106</v>
+      </c>
+      <c r="X87" s="5">
+        <v>122</v>
+      </c>
+      <c r="Y87" s="5">
+        <v>59</v>
+      </c>
+      <c r="Z87" s="5">
         <v>63</v>
-      </c>
-      <c r="N87" s="5">
-        <v>66</v>
-      </c>
-      <c r="O87" s="12">
-        <v>1022</v>
-      </c>
-      <c r="P87" s="12">
-        <v>1022</v>
-      </c>
-      <c r="Q87" s="5">
-        <v>0</v>
-      </c>
-      <c r="R87" s="5">
-        <v>19</v>
-      </c>
-      <c r="S87" s="5">
-        <v>3</v>
-      </c>
-      <c r="T87" s="5">
-        <v>16</v>
-      </c>
-      <c r="U87" s="5">
-        <v>316</v>
-      </c>
-      <c r="V87" s="5">
-        <v>183</v>
-      </c>
-      <c r="W87" s="5">
-        <v>133</v>
-      </c>
-      <c r="X87" s="5">
-        <v>110</v>
-      </c>
-      <c r="Y87" s="5">
-        <v>60</v>
-      </c>
-      <c r="Z87" s="5">
-        <v>50</v>
       </c>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
@@ -8929,58 +8956,58 @@
         <v>34</v>
       </c>
       <c r="I88" s="5">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="J88" s="5">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="K88" s="5">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="L88" s="5">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M88" s="5">
+        <v>8</v>
+      </c>
+      <c r="N88" s="5">
+        <v>51</v>
+      </c>
+      <c r="O88" s="5">
+        <v>509</v>
+      </c>
+      <c r="P88" s="5">
+        <v>509</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>0</v>
+      </c>
+      <c r="R88" s="5">
         <v>7</v>
-      </c>
-      <c r="N88" s="5">
-        <v>33</v>
-      </c>
-      <c r="O88" s="5">
-        <v>552</v>
-      </c>
-      <c r="P88" s="5">
-        <v>552</v>
-      </c>
-      <c r="Q88" s="5">
-        <v>0</v>
-      </c>
-      <c r="R88" s="5">
-        <v>4</v>
       </c>
       <c r="S88" s="5">
         <v>2</v>
       </c>
       <c r="T88" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U88" s="5">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="V88" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W88" s="5">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="X88" s="5">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="Y88" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z88" s="5">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
@@ -9019,40 +9046,40 @@
         <v>34</v>
       </c>
       <c r="I89" s="5">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="J89" s="5">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="K89" s="5">
         <v>99</v>
       </c>
       <c r="L89" s="5">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M89" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N89" s="5">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="O89" s="5">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="P89" s="5">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="Q89" s="5">
         <v>0</v>
       </c>
       <c r="R89" s="5">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="S89" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T89" s="5">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="U89" s="5">
         <v>149</v>
@@ -9064,13 +9091,13 @@
         <v>99</v>
       </c>
       <c r="X89" s="5">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y89" s="6">
         <v>0</v>
       </c>
       <c r="Z89" s="5">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AA89" s="8"/>
       <c r="AB89" s="8"/>
@@ -9109,22 +9136,22 @@
         <v>34</v>
       </c>
       <c r="I90" s="5">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="J90" s="5">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K90" s="5">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L90" s="5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M90" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N90" s="5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O90" s="5">
         <v>377</v>
@@ -9136,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="R90" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S90" s="5">
         <v>5</v>
       </c>
       <c r="T90" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U90" s="5">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="V90" s="5">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W90" s="5">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="X90" s="5">
-        <v>12</v>
-      </c>
-      <c r="Y90" s="6">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="Y90" s="5">
+        <v>6</v>
       </c>
       <c r="Z90" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA90" s="8"/>
       <c r="AB90" s="8"/>
@@ -9208,13 +9235,13 @@
         <v>42</v>
       </c>
       <c r="L91" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M91" s="5">
         <v>1</v>
       </c>
       <c r="N91" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O91" s="5">
         <v>768</v>
@@ -9226,13 +9253,13 @@
         <v>0</v>
       </c>
       <c r="R91" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S91" s="5">
         <v>1</v>
       </c>
       <c r="T91" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U91" s="5">
         <v>42</v>
@@ -9242,13 +9269,13 @@
         <v>42</v>
       </c>
       <c r="X91" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y91" s="6">
         <v>0</v>
       </c>
       <c r="Z91" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
@@ -9287,56 +9314,56 @@
         <v>34</v>
       </c>
       <c r="I92" s="5">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="J92" s="5">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="K92" s="5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L92" s="5">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M92" s="5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N92" s="5">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O92" s="5">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="P92" s="5">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="Q92" s="5">
         <v>0</v>
       </c>
       <c r="R92" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S92" s="5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="T92" s="5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U92" s="5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V92" s="7"/>
       <c r="W92" s="5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X92" s="5">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Y92" s="6">
         <v>0</v>
       </c>
       <c r="Z92" s="5">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AA92" s="8"/>
       <c r="AB92" s="8"/>
@@ -9375,58 +9402,58 @@
         <v>34</v>
       </c>
       <c r="I93" s="5">
-        <v>568</v>
+        <v>481</v>
       </c>
       <c r="J93" s="5">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="K93" s="5">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="L93" s="5">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="M93" s="5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N93" s="5">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="O93" s="5">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="P93" s="5">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="Q93" s="5">
         <v>0</v>
       </c>
       <c r="R93" s="5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="S93" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T93" s="5">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U93" s="5">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="V93" s="5">
         <v>205</v>
       </c>
       <c r="W93" s="5">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="X93" s="5">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="Y93" s="5">
         <v>39</v>
       </c>
       <c r="Z93" s="5">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="AA93" s="8"/>
       <c r="AB93" s="8"/>
@@ -9465,58 +9492,58 @@
         <v>34</v>
       </c>
       <c r="I94" s="5">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="J94" s="5">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K94" s="5">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L94" s="5">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="M94" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N94" s="5">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="O94" s="5">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P94" s="5">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q94" s="5">
         <v>0</v>
       </c>
       <c r="R94" s="5">
-        <v>3</v>
-      </c>
-      <c r="S94" s="5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="S94" s="6">
+        <v>0</v>
       </c>
       <c r="T94" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U94" s="5">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="V94" s="5">
         <v>157</v>
       </c>
       <c r="W94" s="5">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="X94" s="5">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Y94" s="5">
         <v>18</v>
       </c>
       <c r="Z94" s="5">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="AA94" s="8"/>
       <c r="AB94" s="8"/>
@@ -9555,58 +9582,58 @@
         <v>168</v>
       </c>
       <c r="I95" s="5">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="J95" s="5">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K95" s="5">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="L95" s="5">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="M95" s="5">
         <v>5</v>
       </c>
       <c r="N95" s="5">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="O95" s="5">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P95" s="5">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q95" s="5">
         <v>0</v>
       </c>
       <c r="R95" s="5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S95" s="5">
         <v>5</v>
       </c>
       <c r="T95" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U95" s="5">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="V95" s="5">
         <v>59</v>
       </c>
       <c r="W95" s="5">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="X95" s="5">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Y95" s="6">
         <v>0</v>
       </c>
       <c r="Z95" s="5">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="AA95" s="8"/>
       <c r="AB95" s="8"/>
@@ -9645,66 +9672,76 @@
         <v>34</v>
       </c>
       <c r="I96" s="5">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J96" s="5">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K96" s="5">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="L96" s="5">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="M96" s="5">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N96" s="5">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="O96" s="5">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P96" s="5">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q96" s="5">
         <v>0</v>
       </c>
       <c r="R96" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S96" s="5">
         <v>6</v>
       </c>
       <c r="T96" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U96" s="5">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="V96" s="5">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="W96" s="5">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="X96" s="5">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="Y96" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z96" s="5">
-        <v>63</v>
-      </c>
-      <c r="AA96" s="8"/>
-      <c r="AB96" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="AA96" s="5">
+        <v>8</v>
+      </c>
+      <c r="AB96" s="10">
+        <v>3</v>
+      </c>
       <c r="AC96" s="4"/>
       <c r="AD96" s="4"/>
-      <c r="AE96" s="4"/>
-      <c r="AF96" s="4"/>
-      <c r="AG96" s="4"/>
+      <c r="AE96" s="11">
+        <v>16</v>
+      </c>
+      <c r="AF96" s="11">
+        <v>17</v>
+      </c>
+      <c r="AG96" s="11">
+        <v>18</v>
+      </c>
       <c r="AH96" s="4"/>
       <c r="AI96" s="4"/>
       <c r="AJ96" s="4"/>
@@ -9735,58 +9772,58 @@
         <v>168</v>
       </c>
       <c r="I97" s="12">
-        <v>1653</v>
+        <v>1601</v>
       </c>
       <c r="J97" s="12">
-        <v>1518</v>
+        <v>1496</v>
       </c>
       <c r="K97" s="5">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="L97" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M97" s="5">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N97" s="5">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O97" s="12">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="P97" s="12">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="Q97" s="5">
         <v>0</v>
       </c>
       <c r="R97" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="S97" s="5">
         <v>10</v>
       </c>
       <c r="T97" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="U97" s="5">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="V97" s="5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W97" s="5">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="X97" s="5">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="Y97" s="5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Z97" s="5">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AA97" s="8"/>
       <c r="AB97" s="8"/>
@@ -9825,58 +9862,58 @@
         <v>34</v>
       </c>
       <c r="I98" s="5">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="J98" s="5">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="K98" s="5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L98" s="5">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M98" s="5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N98" s="5">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="O98" s="5">
-        <v>381</v>
+        <v>288</v>
       </c>
       <c r="P98" s="5">
-        <v>381</v>
+        <v>288</v>
       </c>
       <c r="Q98" s="5">
         <v>0</v>
       </c>
       <c r="R98" s="5">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="S98" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T98" s="5">
-        <v>0</v>
-      </c>
-      <c r="U98" s="13">
-        <v>84</v>
+        <v>13</v>
+      </c>
+      <c r="U98" s="5">
+        <v>136</v>
       </c>
       <c r="V98" s="5">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="W98" s="5">
-        <v>81</v>
-      </c>
-      <c r="X98" s="13">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="X98" s="5">
+        <v>100</v>
       </c>
       <c r="Y98" s="5">
         <v>45</v>
       </c>
       <c r="Z98" s="5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
@@ -9915,22 +9952,22 @@
         <v>168</v>
       </c>
       <c r="I99" s="5">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J99" s="5">
         <v>113</v>
       </c>
       <c r="K99" s="5">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L99" s="5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M99" s="5">
         <v>9</v>
       </c>
       <c r="N99" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O99" s="5">
         <v>113</v>
@@ -9951,20 +9988,20 @@
         <v>0</v>
       </c>
       <c r="U99" s="5">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V99" s="7"/>
       <c r="W99" s="5">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="X99" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y99" s="6">
         <v>0</v>
       </c>
       <c r="Z99" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA99" s="8"/>
       <c r="AB99" s="8"/>
@@ -10003,56 +10040,56 @@
         <v>34</v>
       </c>
       <c r="I100" s="5">
-        <v>103</v>
+        <v>578</v>
       </c>
       <c r="J100" s="5">
-        <v>33</v>
+        <v>513</v>
       </c>
       <c r="K100" s="5">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L100" s="5">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="M100" s="6">
         <v>0</v>
       </c>
       <c r="N100" s="5">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="O100" s="5">
-        <v>33</v>
+        <v>513</v>
       </c>
       <c r="P100" s="5">
-        <v>33</v>
+        <v>513</v>
       </c>
       <c r="Q100" s="5">
         <v>0</v>
       </c>
       <c r="R100" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S100" s="6">
         <v>0</v>
       </c>
       <c r="T100" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U100" s="5">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V100" s="7"/>
       <c r="W100" s="5">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="X100" s="5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y100" s="6">
         <v>0</v>
       </c>
       <c r="Z100" s="5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA100" s="8"/>
       <c r="AB100" s="8"/>
@@ -10091,67 +10128,77 @@
         <v>34</v>
       </c>
       <c r="I101" s="5">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="J101" s="5">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K101" s="5">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L101" s="5">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="M101" s="5">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="N101" s="5">
-        <v>36</v>
-      </c>
-      <c r="O101" s="5">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="O101" s="13">
+        <v>5</v>
       </c>
       <c r="P101" s="5">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="Q101" s="5">
         <v>0</v>
       </c>
-      <c r="R101" s="5">
-        <v>4</v>
+      <c r="R101" s="13">
+        <v>44</v>
       </c>
       <c r="S101" s="5">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="T101" s="5">
         <v>3</v>
       </c>
       <c r="U101" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V101" s="5">
         <v>45</v>
       </c>
       <c r="W101" s="5">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X101" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y101" s="5">
         <v>5</v>
       </c>
       <c r="Z101" s="5">
-        <v>33</v>
-      </c>
-      <c r="AA101" s="8"/>
-      <c r="AB101" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="AA101" s="5">
+        <v>8</v>
+      </c>
+      <c r="AB101" s="10">
+        <v>3</v>
+      </c>
       <c r="AC101" s="4"/>
       <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
-      <c r="AF101" s="4"/>
-      <c r="AG101" s="4"/>
-      <c r="AH101" s="4"/>
+      <c r="AF101" s="11">
+        <v>17</v>
+      </c>
+      <c r="AG101" s="11">
+        <v>18</v>
+      </c>
+      <c r="AH101" s="11">
+        <v>19</v>
+      </c>
       <c r="AI101" s="4"/>
       <c r="AJ101" s="4"/>
     </row>
@@ -10181,28 +10228,28 @@
         <v>34</v>
       </c>
       <c r="I102" s="5">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="J102" s="5">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="K102" s="5">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="L102" s="5">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M102" s="5">
         <v>7</v>
       </c>
       <c r="N102" s="5">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O102" s="5">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="P102" s="5">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="Q102" s="5">
         <v>0</v>
@@ -10217,22 +10264,22 @@
         <v>4</v>
       </c>
       <c r="U102" s="5">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="V102" s="5">
         <v>42</v>
       </c>
       <c r="W102" s="5">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="X102" s="5">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y102" s="5">
         <v>3</v>
       </c>
       <c r="Z102" s="5">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AA102" s="8"/>
       <c r="AB102" s="8"/>
@@ -10271,58 +10318,58 @@
         <v>34</v>
       </c>
       <c r="I103" s="5">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="J103" s="5">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="K103" s="5">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="L103" s="5">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M103" s="5">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N103" s="5">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O103" s="5">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="P103" s="5">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="Q103" s="5">
         <v>0</v>
       </c>
       <c r="R103" s="5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="S103" s="5">
+        <v>2</v>
+      </c>
+      <c r="T103" s="5">
         <v>7</v>
       </c>
-      <c r="T103" s="5">
-        <v>13</v>
-      </c>
       <c r="U103" s="5">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="V103" s="5">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="W103" s="5">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="X103" s="5">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Y103" s="5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Z103" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA103" s="8"/>
       <c r="AB103" s="8"/>
@@ -10370,13 +10417,13 @@
         <v>49</v>
       </c>
       <c r="L104" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M104" s="5">
         <v>4</v>
       </c>
       <c r="N104" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O104" s="5">
         <v>29</v>
@@ -10404,13 +10451,13 @@
         <v>49</v>
       </c>
       <c r="X104" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y104" s="5">
         <v>1</v>
       </c>
       <c r="Z104" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA104" s="8"/>
       <c r="AB104" s="8"/>
@@ -10539,22 +10586,22 @@
         <v>34</v>
       </c>
       <c r="I106" s="5">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J106" s="5">
         <v>264</v>
       </c>
       <c r="K106" s="5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L106" s="5">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M106" s="5">
         <v>6</v>
       </c>
       <c r="N106" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O106" s="5">
         <v>264</v>
@@ -10575,20 +10622,20 @@
         <v>0</v>
       </c>
       <c r="U106" s="5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V106" s="7"/>
       <c r="W106" s="5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X106" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y106" s="6">
         <v>0</v>
       </c>
       <c r="Z106" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA106" s="8"/>
       <c r="AB106" s="8"/>
@@ -10715,22 +10762,22 @@
         <v>34</v>
       </c>
       <c r="I108" s="5">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="J108" s="5">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K108" s="5">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L108" s="5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M108" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N108" s="5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O108" s="5">
         <v>214</v>
@@ -10751,22 +10798,22 @@
         <v>0</v>
       </c>
       <c r="U108" s="5">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="V108" s="5">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W108" s="5">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X108" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y108" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z108" s="5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA108" s="8"/>
       <c r="AB108" s="8"/>
@@ -10893,22 +10940,22 @@
         <v>34</v>
       </c>
       <c r="I110" s="5">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J110" s="5">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K110" s="5">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L110" s="5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M110" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N110" s="5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O110" s="5">
         <v>71</v>
@@ -10929,22 +10976,22 @@
         <v>0</v>
       </c>
       <c r="U110" s="5">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V110" s="5">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W110" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X110" s="5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y110" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z110" s="5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AA110" s="8"/>
       <c r="AB110" s="8"/>
@@ -10983,22 +11030,22 @@
         <v>34</v>
       </c>
       <c r="I111" s="5">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J111" s="5">
         <v>515</v>
       </c>
       <c r="K111" s="5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L111" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M111" s="6">
         <v>0</v>
       </c>
       <c r="N111" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O111" s="5">
         <v>315</v>
@@ -11019,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="U111" s="5">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V111" s="5">
         <v>202</v>
       </c>
       <c r="W111" s="5">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X111" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y111" s="6">
         <v>0</v>
       </c>
       <c r="Z111" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA111" s="8"/>
       <c r="AB111" s="8"/>
